--- a/media/site/sample.xlsx
+++ b/media/site/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\me\dunzo\media\site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C9539F-48C1-48CD-9E8C-DA933D249722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD5FF5F-B0A9-4080-B82F-EF2D4446D46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>4B Fenton Close, Chisipite</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Order Type (1: Prepaid, 0: Cod)</t>
+  </si>
+  <si>
+    <t>Driver id</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J356"/>
+  <dimension ref="A1:K356"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,7 +504,7 @@
     <col min="10" max="10" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -532,8 +535,11 @@
       <c r="J1" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -559,14 +565,17 @@
         <v>6</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I65" si="0">H2*3.34</f>
+        <f t="shared" ref="I2:I3" si="0">H2*3.34</f>
         <v>20.04</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -598,56 +607,59 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
     </row>
